--- a/biology/Histoire de la zoologie et de la botanique/Hu_Shuqin/Hu_Shuqin.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Hu_Shuqin/Hu_Shuqin.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hu Shuqin (en chinois 胡淑琴, transcrit parfois en Shu-chin Hu ou Shu-ching Hu) est une herpétologiste chinoise, née le 13 février 1914 à Changshu de la province du Jiangsu et morte le 10 décembre 1992 à Chengdu.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Hu Shuqin est diplômée, en 1937, à l’université Soochow à Suzhou, elle y étudie la biologie notamment auprès du zoologiste Cheng-chao Liu. Lors de la seconde guerre sino-japonaise, les deux biologistes partent à Chengdu. Tandis que Liu devient professeur à la West China Union University, Hu travaille à l’université d’Huaxi, à l’université Yenching et à l’institut médical du Sichuan. Elle se marie avec Liu en 1941. En 1960, elle travaille à l’institut de biologie de l’Academia Sinica.
 Ses recherches sont intimement liées à celle de Liu, son mari. Ils signent une quarantaine de publications, principalement sur les grenouilles. Malgré les difficultés dues à la guerre, elle fait de nombreuses recherches de terrain. Elle décrit, seule ou avec ses collègues, plus de 120 espèces d’amphibiens. Hu participe à la publication de plusieurs guides de détermination de reptiles et amphibiens chinois. Certaines de ses publications portent son nom sous la forme de Shu-chin Hu ou Shu-ching Hu.
@@ -543,7 +557,9 @@
           <t>Taxon nommé en son honneur</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Rana shuchinae Liu, 1950</t>
         </is>
@@ -573,7 +589,9 @@
           <t>Quelques taxons décrits</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Achalinus meiguensis
@@ -640,7 +658,9 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Kraig Adler (2007). Contributions to the History of Herpetology. Volume 2, Society for the study of amphibians and reptiles : 389 p.  (ISBN 0916984710)
  Hu est l’abréviation habituelle de Hu Shuqin en zoologie.
